--- a/Test Data/TestDataGathered.xlsx
+++ b/Test Data/TestDataGathered.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joach\Documents\GitHub\Neuroverse\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msvieira\Documents\GitHub\Toolkitex\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDB5EEA-3AA9-4046-A914-42967CEF217A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B5555F-22FB-43C2-A3C8-EDC3C02370D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{554583DC-D0D2-4126-ADA5-B36DD0409E36}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{554583DC-D0D2-4126-ADA5-B36DD0409E36}"/>
   </bookViews>
   <sheets>
     <sheet name="AllAnswers" sheetId="2" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2837" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2837" uniqueCount="511">
   <si>
     <t>0.33x</t>
   </si>
@@ -1602,6 +1602,9 @@
   </si>
   <si>
     <t>Non-ND</t>
+  </si>
+  <si>
+    <t>Gain:1dB,Frequency:8000Hz,x:-0,y:0</t>
   </si>
 </sst>
 </file>
@@ -1704,13 +1707,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2225,59 +2228,59 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="81.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="56.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="52" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="56.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="67.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="74.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="62.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="61.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="67.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="74.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="62.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="40" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="61.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="60.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="60.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="36" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="42.5546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="60.88671875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="58.109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="47.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="41.44140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="44.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="45.44140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="58.109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="60.33203125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="58.109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="47.88671875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="21" bestFit="1" customWidth="1"/>
-    <col min="49" max="50" width="81.109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="81.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>345</v>
       </c>
@@ -2420,7 +2423,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7</v>
       </c>
@@ -2563,7 +2566,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>104</v>
       </c>
@@ -2706,7 +2709,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8</v>
       </c>
@@ -2849,7 +2852,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>11</v>
       </c>
@@ -2992,7 +2995,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -3132,7 +3135,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>15</v>
       </c>
@@ -3260,7 +3263,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>16</v>
       </c>
@@ -3400,7 +3403,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>18</v>
       </c>
@@ -3543,7 +3546,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -3686,7 +3689,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -3829,7 +3832,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -3972,7 +3975,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
@@ -4115,7 +4118,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -4255,7 +4258,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -4395,7 +4398,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -4523,7 +4526,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -4657,7 +4660,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4800,7 +4803,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>101</v>
       </c>
@@ -4943,7 +4946,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>102</v>
       </c>
@@ -5068,7 +5071,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>103</v>
       </c>
@@ -5205,7 +5208,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>105</v>
       </c>
@@ -5345,7 +5348,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>106</v>
       </c>
@@ -5488,7 +5491,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>14</v>
       </c>
@@ -5631,7 +5634,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>504</v>
       </c>
@@ -5660,7 +5663,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B27">
         <f>AVERAGE(B3:B9)</f>
         <v>3.8571428571428572</v>
@@ -5698,7 +5701,7 @@
         <v>3.1428571428571428</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>505</v>
       </c>
@@ -5727,7 +5730,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B29">
         <f>AVERAGE(B10:B24)</f>
         <v>3.9333333333333331</v>
@@ -5778,64 +5781,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C745AEC1-F2DD-4640-9560-E3DC1F21164D}">
   <dimension ref="A1:BL32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection sqref="A1:AU9"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="AV32" sqref="AV32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="79" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="81.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="56.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="52" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="56.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="67.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="74.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="62.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="61.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="67.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="74.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="62.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="40" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="61.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="36.88671875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="60.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="60.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="36" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="39.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="42.5546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="60.88671875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="58.109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="47.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="41.44140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="44.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="45.44140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="58.109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="60.33203125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="58.109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="47.88671875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="60.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="21" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="81.109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="11.109375" customWidth="1"/>
+    <col min="49" max="49" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>345</v>
       </c>
@@ -5987,7 +5990,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7</v>
       </c>
@@ -6046,7 +6049,7 @@
         <v>85</v>
       </c>
       <c r="T2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U2" t="s">
         <v>32</v>
@@ -6067,7 +6070,7 @@
         <v>92</v>
       </c>
       <c r="AA2" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="AB2" t="s">
         <v>86</v>
@@ -6176,7 +6179,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>104</v>
       </c>
@@ -6232,7 +6235,7 @@
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>7</v>
+        <v>510</v>
       </c>
       <c r="T3" t="s">
         <v>274</v>
@@ -6380,7 +6383,7 @@
       </c>
       <c r="BL3" s="4"/>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8</v>
       </c>
@@ -6442,10 +6445,10 @@
         <v>32</v>
       </c>
       <c r="U4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W4" t="s">
         <v>2</v>
@@ -6502,7 +6505,7 @@
         <v>24</v>
       </c>
       <c r="AO4" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="AP4" t="s">
         <v>24</v>
@@ -6575,7 +6578,7 @@
         <v>3</v>
       </c>
       <c r="BJ4" s="4">
-        <f t="shared" ref="BJ4:BK10" si="13">G11</f>
+        <f t="shared" ref="BJ4:BJ10" si="13">G11</f>
         <v>3</v>
       </c>
       <c r="BK4" s="4">
@@ -6584,7 +6587,7 @@
       </c>
       <c r="BL4" s="4"/>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>11</v>
       </c>
@@ -6643,7 +6646,7 @@
         <v>3</v>
       </c>
       <c r="T5" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U5" t="s">
         <v>161</v>
@@ -6788,7 +6791,7 @@
       </c>
       <c r="BL5" s="4"/>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -6850,7 +6853,7 @@
         <v>23</v>
       </c>
       <c r="U6" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V6" t="s">
         <v>17</v>
@@ -6868,7 +6871,7 @@
         <v>10</v>
       </c>
       <c r="AA6" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="AB6" t="s">
         <v>8</v>
@@ -6880,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="AE6" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="s">
         <v>19</v>
@@ -6925,7 +6928,7 @@
         <v>20</v>
       </c>
       <c r="AT6" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="AW6" t="str">
         <f t="shared" si="0"/>
@@ -6989,7 +6992,7 @@
       </c>
       <c r="BL6" s="4"/>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>15</v>
       </c>
@@ -7178,7 +7181,7 @@
       </c>
       <c r="BL7" s="4"/>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>16</v>
       </c>
@@ -7234,13 +7237,13 @@
         <v>348</v>
       </c>
       <c r="T8" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W8" t="s">
         <v>2</v>
@@ -7276,7 +7279,7 @@
         <v>352</v>
       </c>
       <c r="AH8" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="AI8" t="s">
         <v>356</v>
@@ -7379,7 +7382,7 @@
       </c>
       <c r="BL8" s="4"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>18</v>
       </c>
@@ -7480,7 +7483,7 @@
         <v>398</v>
       </c>
       <c r="AH9" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="AI9" t="s">
         <v>394</v>
@@ -7501,7 +7504,7 @@
         <v>24</v>
       </c>
       <c r="AO9" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="AP9" t="s">
         <v>24</v>
@@ -7583,7 +7586,7 @@
       </c>
       <c r="BL9" s="4"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -7663,7 +7666,7 @@
         <v>34</v>
       </c>
       <c r="AA10" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="AB10" t="s">
         <v>30</v>
@@ -7699,13 +7702,13 @@
         <v>2</v>
       </c>
       <c r="AM10" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="AN10" t="s">
         <v>1</v>
       </c>
       <c r="AO10" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="AP10" t="s">
         <v>24</v>
@@ -7787,7 +7790,7 @@
       </c>
       <c r="BL10" s="4"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -7843,16 +7846,16 @@
         <v>24</v>
       </c>
       <c r="S11" t="s">
-        <v>7</v>
+        <v>510</v>
       </c>
       <c r="T11" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W11" t="s">
         <v>2</v>
@@ -7888,7 +7891,7 @@
         <v>330</v>
       </c>
       <c r="AH11" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="AI11" t="s">
         <v>341</v>
@@ -7962,7 +7965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -8024,7 +8027,7 @@
         <v>65</v>
       </c>
       <c r="U12" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V12" t="s">
         <v>26</v>
@@ -8054,7 +8057,7 @@
         <v>1</v>
       </c>
       <c r="AE12" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="s">
         <v>64</v>
@@ -8063,7 +8066,7 @@
         <v>55</v>
       </c>
       <c r="AH12" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="AI12" t="s">
         <v>61</v>
@@ -8084,7 +8087,7 @@
         <v>1</v>
       </c>
       <c r="AO12" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="AP12" t="s">
         <v>24</v>
@@ -8137,7 +8140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
@@ -8196,13 +8199,13 @@
         <v>68</v>
       </c>
       <c r="T13" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W13" t="s">
         <v>1</v>
@@ -8211,7 +8214,7 @@
         <v>76</v>
       </c>
       <c r="Y13" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="Z13" t="s">
         <v>72</v>
@@ -8253,7 +8256,7 @@
         <v>1</v>
       </c>
       <c r="AM13" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="AN13" t="s">
         <v>1</v>
@@ -8265,7 +8268,7 @@
         <v>24</v>
       </c>
       <c r="AQ13" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="AR13" t="s">
         <v>69</v>
@@ -8312,7 +8315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -8374,7 +8377,7 @@
         <v>33</v>
       </c>
       <c r="V14" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W14" t="s">
         <v>2</v>
@@ -8484,7 +8487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -8561,7 +8564,7 @@
         <v>140</v>
       </c>
       <c r="AA15" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="AB15" t="s">
         <v>136</v>
@@ -8573,7 +8576,7 @@
         <v>24</v>
       </c>
       <c r="AE15" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="s">
         <v>148</v>
@@ -8597,13 +8600,13 @@
         <v>2</v>
       </c>
       <c r="AM15" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="AN15" t="s">
         <v>1</v>
       </c>
       <c r="AO15" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="AP15" t="s">
         <v>24</v>
@@ -8656,7 +8659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -8754,7 +8757,7 @@
         <v>178</v>
       </c>
       <c r="AH16" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="AL16" t="s">
         <v>1</v>
@@ -8816,7 +8819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -8878,7 +8881,7 @@
         <v>195</v>
       </c>
       <c r="V17" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X17" t="s">
         <v>198</v>
@@ -8896,7 +8899,7 @@
         <v>191</v>
       </c>
       <c r="AC17" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="AE17" t="s">
         <v>192</v>
@@ -8923,7 +8926,7 @@
         <v>2</v>
       </c>
       <c r="AM17" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="AN17" t="s">
         <v>1</v>
@@ -8935,13 +8938,13 @@
         <v>24</v>
       </c>
       <c r="AQ17" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="AR17" t="s">
         <v>189</v>
       </c>
       <c r="AS17" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="AT17" t="s">
         <v>190</v>
@@ -8982,7 +8985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9062,10 +9065,10 @@
         <v>379</v>
       </c>
       <c r="AA18" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="AB18" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="AC18" t="s">
         <v>376</v>
@@ -9074,7 +9077,7 @@
         <v>24</v>
       </c>
       <c r="AE18" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="s">
         <v>374</v>
@@ -9119,7 +9122,7 @@
         <v>375</v>
       </c>
       <c r="AT18" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="AU18" t="s">
         <v>381</v>
@@ -9129,7 +9132,7 @@
         <v>Neurotypical/None</v>
       </c>
     </row>
-    <row r="19" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>101</v>
       </c>
@@ -9185,7 +9188,7 @@
         <v>1</v>
       </c>
       <c r="S19" t="s">
-        <v>7</v>
+        <v>510</v>
       </c>
       <c r="T19" t="s">
         <v>323</v>
@@ -9206,7 +9209,7 @@
         <v>314</v>
       </c>
       <c r="Z19" t="s">
-        <v>7</v>
+        <v>510</v>
       </c>
       <c r="AA19" t="s">
         <v>318</v>
@@ -9260,7 +9263,7 @@
         <v>315</v>
       </c>
       <c r="AR19" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="AS19" t="s">
         <v>320</v>
@@ -9276,7 +9279,7 @@
         <v>Neurotypical/None</v>
       </c>
     </row>
-    <row r="20" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>102</v>
       </c>
@@ -9332,10 +9335,10 @@
         <v>230</v>
       </c>
       <c r="T20" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U20" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V20" t="s">
         <v>32</v>
@@ -9344,7 +9347,7 @@
         <v>241</v>
       </c>
       <c r="Y20" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="Z20" t="s">
         <v>233</v>
@@ -9368,7 +9371,7 @@
         <v>235</v>
       </c>
       <c r="AH20" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="AI20" t="s">
         <v>236</v>
@@ -9383,7 +9386,7 @@
         <v>237</v>
       </c>
       <c r="AO20" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="AQ20" t="s">
         <v>239</v>
@@ -9395,7 +9398,7 @@
         <v>243</v>
       </c>
       <c r="AT20" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="AU20" t="s">
         <v>242</v>
@@ -9405,7 +9408,7 @@
         <v>Neurotypical/None</v>
       </c>
     </row>
-    <row r="21" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>103</v>
       </c>
@@ -9461,7 +9464,7 @@
         <v>248</v>
       </c>
       <c r="T21" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U21" t="s">
         <v>32</v>
@@ -9476,7 +9479,7 @@
         <v>254</v>
       </c>
       <c r="Y21" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="Z21" t="s">
         <v>251</v>
@@ -9485,16 +9488,16 @@
         <v>308</v>
       </c>
       <c r="AB21" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="AC21" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="AD21" t="s">
         <v>24</v>
       </c>
       <c r="AE21" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="s">
         <v>256</v>
@@ -9527,7 +9530,7 @@
         <v>245</v>
       </c>
       <c r="AQ21" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="AR21" t="s">
         <v>246</v>
@@ -9546,7 +9549,7 @@
         <v>Neurotypical/None</v>
       </c>
     </row>
-    <row r="22" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>105</v>
       </c>
@@ -9602,7 +9605,7 @@
         <v>278</v>
       </c>
       <c r="T22" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U22" t="s">
         <v>33</v>
@@ -9626,7 +9629,7 @@
         <v>285</v>
       </c>
       <c r="AB22" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="AC22" t="s">
         <v>292</v>
@@ -9635,7 +9638,7 @@
         <v>24</v>
       </c>
       <c r="AE22" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AF22" t="s">
         <v>291</v>
@@ -9680,7 +9683,7 @@
         <v>290</v>
       </c>
       <c r="AT22" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="AU22" t="s">
         <v>289</v>
@@ -9690,7 +9693,7 @@
         <v>Neurotypical/None</v>
       </c>
     </row>
-    <row r="23" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>106</v>
       </c>
@@ -9749,25 +9752,25 @@
         <v>296</v>
       </c>
       <c r="T23" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U23" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W23" t="s">
         <v>1</v>
       </c>
       <c r="X23" t="s">
-        <v>7</v>
+        <v>510</v>
       </c>
       <c r="Y23" t="s">
         <v>301</v>
       </c>
       <c r="Z23" t="s">
-        <v>7</v>
+        <v>510</v>
       </c>
       <c r="AA23" t="s">
         <v>303</v>
@@ -9776,7 +9779,7 @@
         <v>299</v>
       </c>
       <c r="AC23" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="AD23" t="s">
         <v>1</v>
@@ -9806,25 +9809,25 @@
         <v>1</v>
       </c>
       <c r="AM23" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="AN23" t="s">
         <v>1</v>
       </c>
       <c r="AO23" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="AP23" t="s">
         <v>24</v>
       </c>
       <c r="AQ23" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="AR23" t="s">
         <v>297</v>
       </c>
       <c r="AS23" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="AT23" t="s">
         <v>298</v>
@@ -9837,7 +9840,7 @@
         <v>Neurotypical/None</v>
       </c>
     </row>
-    <row r="24" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>14</v>
       </c>
@@ -9896,7 +9899,7 @@
         <v>209</v>
       </c>
       <c r="T24" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U24" t="s">
         <v>0</v>
@@ -9917,19 +9920,19 @@
         <v>214</v>
       </c>
       <c r="AA24" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="AB24" t="s">
         <v>210</v>
       </c>
       <c r="AC24" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="AD24" t="s">
         <v>24</v>
       </c>
       <c r="AE24" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AF24" t="s">
         <v>3</v>
@@ -9938,7 +9941,7 @@
         <v>213</v>
       </c>
       <c r="AH24" t="s">
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="AI24" t="s">
         <v>207</v>
@@ -9984,7 +9987,7 @@
         <v>Neurotypical/None</v>
       </c>
     </row>
-    <row r="26" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>504</v>
       </c>
@@ -10124,7 +10127,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="27" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B27">
         <f>AVERAGE(B2:B9)</f>
         <v>3.875</v>
@@ -10134,7 +10137,7 @@
         <v>2.875</v>
       </c>
       <c r="D27">
-        <f t="shared" ref="C27:AU27" si="15">AVERAGE(D2:D9)</f>
+        <f t="shared" ref="D27:AU27" si="15">AVERAGE(D2:D9)</f>
         <v>4.125</v>
       </c>
       <c r="E27">
@@ -10310,7 +10313,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>505</v>
       </c>
@@ -10450,7 +10453,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="29" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B29">
         <f>AVERAGE(B10:B24)</f>
         <v>3.9333333333333331</v>
@@ -10460,7 +10463,7 @@
         <v>2.1333333333333333</v>
       </c>
       <c r="D29">
-        <f t="shared" ref="C29:AU29" si="16">AVERAGE(D10:D24)</f>
+        <f t="shared" ref="D29:AU29" si="16">AVERAGE(D10:D24)</f>
         <v>3.7333333333333334</v>
       </c>
       <c r="E29">
@@ -10636,7 +10639,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>506</v>
       </c>
@@ -10776,7 +10779,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="31" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B31">
         <f>_xlfn.T.TEST(B2:B9, B10:B24, 2, 2)</f>
         <v>0.84729466341787218</v>
@@ -10962,7 +10965,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:63" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>507</v>
       </c>
@@ -10983,9 +10986,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>345</v>
       </c>
@@ -11128,7 +11131,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>7</v>
       </c>
@@ -11271,7 +11274,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>104</v>
       </c>
@@ -11414,7 +11417,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>8</v>
       </c>
@@ -11557,7 +11560,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>11</v>
       </c>
@@ -11700,7 +11703,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -11841,7 +11844,7 @@
       </c>
       <c r="AU6" s="8"/>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>15</v>
       </c>
@@ -11974,7 +11977,7 @@
       </c>
       <c r="AU7" s="9"/>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>16</v>
       </c>
@@ -12115,7 +12118,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>18</v>
       </c>
@@ -12271,9 +12274,9 @@
       <selection activeCell="A2" sqref="A2:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>345</v>
       </c>
@@ -12416,7 +12419,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -12559,7 +12562,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
@@ -12702,7 +12705,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -12845,7 +12848,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>6</v>
       </c>
@@ -12988,7 +12991,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9</v>
       </c>
@@ -13128,7 +13131,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -13268,7 +13271,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12</v>
       </c>
@@ -13396,7 +13399,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>13</v>
       </c>
@@ -13530,7 +13533,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>17</v>
       </c>
@@ -13673,7 +13676,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>101</v>
       </c>
@@ -13816,7 +13819,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>102</v>
       </c>
@@ -13941,7 +13944,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>103</v>
       </c>
@@ -14078,7 +14081,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>105</v>
       </c>
@@ -14218,7 +14221,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>106</v>
       </c>
@@ -14361,7 +14364,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
